--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value344.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value344.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.39526824760699</v>
+        <v>0.7641254067420959</v>
       </c>
       <c r="B1">
-        <v>3.999752274463403</v>
+        <v>1.434107184410095</v>
       </c>
       <c r="C1">
-        <v>2.66622397388703</v>
+        <v>5.46373176574707</v>
       </c>
       <c r="D1">
-        <v>1.041426892895572</v>
+        <v>3.170438766479492</v>
       </c>
       <c r="E1">
-        <v>0.7465535198722286</v>
+        <v>1.507601022720337</v>
       </c>
     </row>
   </sheetData>
